--- a/aranya-data.xlsx
+++ b/aranya-data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1524">
   <si>
     <t>C4531</t>
   </si>
@@ -4698,6 +4698,12 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/diyc1dizi/image/upload/v1678368334/aranya-product-v2/J0400004MA1116/web.png</t>
+  </si>
+  <si>
+    <t>Flat Colour</t>
+  </si>
+  <si>
+    <t>Is_Fragile</t>
   </si>
 </sst>
 </file>
@@ -4760,7 +4766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4783,13 +4789,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4827,6 +4842,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5109,11 +5127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ617"/>
+  <dimension ref="A1:AL617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,9 +5163,10 @@
     <col min="30" max="30" width="12.140625" customWidth="1"/>
     <col min="31" max="31" width="18.140625" customWidth="1"/>
     <col min="32" max="32" width="12.42578125" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>669</v>
       </c>
@@ -5256,8 +5275,14 @@
       <c r="AJ1" s="4" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="17" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5415,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5489,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -5563,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5637,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5711,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5785,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5859,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -6017,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -6091,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6165,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -6239,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6313,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>

--- a/aranya-data.xlsx
+++ b/aranya-data.xlsx
@@ -5129,9 +5129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomLeft" activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,6 +5164,7 @@
     <col min="31" max="31" width="18.140625" customWidth="1"/>
     <col min="32" max="32" width="12.42578125" customWidth="1"/>
     <col min="37" max="37" width="12.140625" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
